--- a/data_from_vendor.xlsx
+++ b/data_from_vendor.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\bosch.com\dfsrb\DfsCN\loc\Sgh\RBCN\RBEI_ECN\RBEI_ECN\01-Projects\@Partner_Cost\effort_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\gang\effort_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A49B18-6B8C-493A-9F6D-C3258A1A5C69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="1095" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2527" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2526" uniqueCount="159">
   <si>
     <t>&gt;&gt;&gt; Start reading data</t>
   </si>
@@ -494,9 +493,6 @@
   </si>
   <si>
     <t>福利费</t>
-  </si>
-  <si>
-    <t>remark</t>
   </si>
   <si>
     <t>OutsourcingFee</t>
@@ -505,7 +501,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
@@ -829,29 +825,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:I633"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:H633"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -870,11 +866,8 @@
       <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -888,13 +881,13 @@
         <v>32625</v>
       </c>
       <c r="G4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -908,13 +901,13 @@
         <v>17500</v>
       </c>
       <c r="G5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>7</v>
       </c>
@@ -928,13 +921,13 @@
         <v>15750</v>
       </c>
       <c r="G6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>13</v>
       </c>
@@ -954,7 +947,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>13</v>
       </c>
@@ -974,7 +967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>7</v>
       </c>
@@ -994,7 +987,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>13</v>
       </c>
@@ -1014,7 +1007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>7</v>
       </c>
@@ -1028,13 +1021,13 @@
         <v>32625</v>
       </c>
       <c r="G11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>7</v>
       </c>
@@ -1048,13 +1041,13 @@
         <v>17500</v>
       </c>
       <c r="G12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>7</v>
       </c>
@@ -1068,13 +1061,13 @@
         <v>15750</v>
       </c>
       <c r="G13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>7</v>
       </c>
@@ -1094,7 +1087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>7</v>
       </c>
@@ -1114,7 +1107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>13</v>
       </c>
@@ -1134,7 +1127,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>7</v>
       </c>
@@ -1154,7 +1147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>7</v>
       </c>
@@ -1174,7 +1167,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>13</v>
       </c>
@@ -1188,13 +1181,13 @@
         <v>34537.5</v>
       </c>
       <c r="G19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>7</v>
       </c>
@@ -1208,13 +1201,13 @@
         <v>51300</v>
       </c>
       <c r="G20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>7</v>
       </c>
@@ -1228,13 +1221,13 @@
         <v>34560</v>
       </c>
       <c r="G21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>7</v>
       </c>
@@ -1248,13 +1241,13 @@
         <v>48375</v>
       </c>
       <c r="G22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>7</v>
       </c>
@@ -1268,13 +1261,13 @@
         <v>53550</v>
       </c>
       <c r="G23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>13</v>
       </c>
@@ -1294,7 +1287,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>7</v>
       </c>
@@ -1314,7 +1307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>13</v>
       </c>
@@ -1334,7 +1327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>7</v>
       </c>
@@ -1354,7 +1347,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>13</v>
       </c>
@@ -1368,13 +1361,13 @@
         <v>32400</v>
       </c>
       <c r="G28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>7</v>
       </c>
@@ -1388,13 +1381,13 @@
         <v>3600</v>
       </c>
       <c r="G29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>13</v>
       </c>
@@ -1408,13 +1401,13 @@
         <v>28800</v>
       </c>
       <c r="G30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>13</v>
       </c>
@@ -1428,13 +1421,13 @@
         <v>21600</v>
       </c>
       <c r="G31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H31" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>13</v>
       </c>
@@ -1448,13 +1441,13 @@
         <v>23175</v>
       </c>
       <c r="G32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>7</v>
       </c>
@@ -1468,13 +1461,13 @@
         <v>28125</v>
       </c>
       <c r="G33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H33" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>7</v>
       </c>
@@ -1494,7 +1487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>13</v>
       </c>
@@ -1514,7 +1507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>7</v>
       </c>
@@ -1534,7 +1527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>13</v>
       </c>
@@ -1554,7 +1547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>7</v>
       </c>
@@ -1574,7 +1567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>13</v>
       </c>
@@ -1594,7 +1587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>7</v>
       </c>
@@ -1608,13 +1601,13 @@
         <v>44550</v>
       </c>
       <c r="G40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H40" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>7</v>
       </c>
@@ -1628,13 +1621,13 @@
         <v>5175</v>
       </c>
       <c r="G41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H41" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>7</v>
       </c>
@@ -1648,13 +1641,13 @@
         <v>54450</v>
       </c>
       <c r="G42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H42" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>7</v>
       </c>
@@ -1668,13 +1661,13 @@
         <v>31680</v>
       </c>
       <c r="G43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H43" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>13</v>
       </c>
@@ -1688,13 +1681,13 @@
         <v>36000</v>
       </c>
       <c r="G44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H44" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>7</v>
       </c>
@@ -1708,13 +1701,13 @@
         <v>42075</v>
       </c>
       <c r="G45" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H45" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>7</v>
       </c>
@@ -1728,13 +1721,13 @@
         <v>42075</v>
       </c>
       <c r="G46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H46" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>13</v>
       </c>
@@ -1754,7 +1747,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>7</v>
       </c>
@@ -1774,7 +1767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>7</v>
       </c>
@@ -1794,7 +1787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>7</v>
       </c>
@@ -1808,13 +1801,13 @@
         <v>40950</v>
       </c>
       <c r="G50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H50" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>7</v>
       </c>
@@ -1828,13 +1821,13 @@
         <v>40500</v>
       </c>
       <c r="G51" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H51" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>7</v>
       </c>
@@ -1848,13 +1841,13 @@
         <v>37800</v>
       </c>
       <c r="G52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H52" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>7</v>
       </c>
@@ -1868,13 +1861,13 @@
         <v>37800</v>
       </c>
       <c r="G53" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>13</v>
       </c>
@@ -1888,13 +1881,13 @@
         <v>29340</v>
       </c>
       <c r="G54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H54" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>7</v>
       </c>
@@ -1908,13 +1901,13 @@
         <v>33750</v>
       </c>
       <c r="G55" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H55" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>7</v>
       </c>
@@ -1928,13 +1921,13 @@
         <v>33750</v>
       </c>
       <c r="G56" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H56" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>13</v>
       </c>
@@ -1954,7 +1947,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>13</v>
       </c>
@@ -1974,7 +1967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>7</v>
       </c>
@@ -1994,7 +1987,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>7</v>
       </c>
@@ -2014,7 +2007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>7</v>
       </c>
@@ -2028,13 +2021,13 @@
         <v>27562.5</v>
       </c>
       <c r="G61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H61" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>7</v>
       </c>
@@ -2048,13 +2041,13 @@
         <v>39375</v>
       </c>
       <c r="G62" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H62" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>7</v>
       </c>
@@ -2068,13 +2061,13 @@
         <v>48937.5</v>
       </c>
       <c r="G63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H63" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>7</v>
       </c>
@@ -2088,13 +2081,13 @@
         <v>30600</v>
       </c>
       <c r="G64" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H64" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>7</v>
       </c>
@@ -2108,13 +2101,13 @@
         <v>11587.5</v>
       </c>
       <c r="G65" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H65" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>7</v>
       </c>
@@ -2128,13 +2121,13 @@
         <v>31590</v>
       </c>
       <c r="G66" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H66" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>7</v>
       </c>
@@ -2148,13 +2141,13 @@
         <v>18000</v>
       </c>
       <c r="G67" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H67" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>7</v>
       </c>
@@ -2168,13 +2161,13 @@
         <v>43312.5</v>
       </c>
       <c r="G68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H68" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>7</v>
       </c>
@@ -2188,13 +2181,13 @@
         <v>37350</v>
       </c>
       <c r="G69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H69" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>7</v>
       </c>
@@ -2208,13 +2201,13 @@
         <v>37350</v>
       </c>
       <c r="G70" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H70" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>7</v>
       </c>
@@ -2234,7 +2227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>7</v>
       </c>
@@ -2254,7 +2247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>7</v>
       </c>
@@ -2274,7 +2267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>13</v>
       </c>
@@ -2294,7 +2287,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>7</v>
       </c>
@@ -2314,7 +2307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>7</v>
       </c>
@@ -2328,13 +2321,13 @@
         <v>38025</v>
       </c>
       <c r="G76" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H76" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>7</v>
       </c>
@@ -2348,13 +2341,13 @@
         <v>39262.5</v>
       </c>
       <c r="G77" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H77" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>7</v>
       </c>
@@ -2368,13 +2361,13 @@
         <v>42300</v>
       </c>
       <c r="G78" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H78" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>7</v>
       </c>
@@ -2388,13 +2381,13 @@
         <v>44887.5</v>
       </c>
       <c r="G79" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H79" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>7</v>
       </c>
@@ -2408,13 +2401,13 @@
         <v>29160</v>
       </c>
       <c r="G80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H80" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>7</v>
       </c>
@@ -2428,13 +2421,13 @@
         <v>23400</v>
       </c>
       <c r="G81" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H81" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>7</v>
       </c>
@@ -2448,13 +2441,13 @@
         <v>32850</v>
       </c>
       <c r="G82" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H82" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>7</v>
       </c>
@@ -2468,13 +2461,13 @@
         <v>38362.5</v>
       </c>
       <c r="G83" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H83" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>7</v>
       </c>
@@ -2488,13 +2481,13 @@
         <v>38362.5</v>
       </c>
       <c r="G84" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H84" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>13</v>
       </c>
@@ -2514,7 +2507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>13</v>
       </c>
@@ -2534,7 +2527,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="87" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>7</v>
       </c>
@@ -2554,7 +2547,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="88" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>13</v>
       </c>
@@ -2574,7 +2567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>7</v>
       </c>
@@ -2594,7 +2587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>7</v>
       </c>
@@ -2614,7 +2607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>7</v>
       </c>
@@ -2628,13 +2621,13 @@
         <v>14400</v>
       </c>
       <c r="G91" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H91" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="92" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>7</v>
       </c>
@@ -2648,13 +2641,13 @@
         <v>49938.75</v>
       </c>
       <c r="G92" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H92" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>7</v>
       </c>
@@ -2668,13 +2661,13 @@
         <v>50186.25</v>
       </c>
       <c r="G93" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H93" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>7</v>
       </c>
@@ -2688,13 +2681,13 @@
         <v>47340</v>
       </c>
       <c r="G94" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H94" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>7</v>
       </c>
@@ -2708,13 +2701,13 @@
         <v>48948.75</v>
       </c>
       <c r="G95" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H95" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>13</v>
       </c>
@@ -2728,13 +2721,13 @@
         <v>48600</v>
       </c>
       <c r="G96" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H96" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>7</v>
       </c>
@@ -2748,13 +2741,13 @@
         <v>33813</v>
       </c>
       <c r="G97" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H97" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>7</v>
       </c>
@@ -2768,13 +2761,13 @@
         <v>43998.75</v>
       </c>
       <c r="G98" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H98" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>7</v>
       </c>
@@ -2788,13 +2781,13 @@
         <v>43998.75</v>
       </c>
       <c r="G99" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H99" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>7</v>
       </c>
@@ -2814,7 +2807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>7</v>
       </c>
@@ -2828,13 +2821,13 @@
         <v>32175</v>
       </c>
       <c r="G101" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H101" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="102" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>7</v>
       </c>
@@ -2848,13 +2841,13 @@
         <v>7200</v>
       </c>
       <c r="G102" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H102" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>13</v>
       </c>
@@ -2874,7 +2867,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="104" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>7</v>
       </c>
@@ -2894,7 +2887,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="105" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>13</v>
       </c>
@@ -2914,7 +2907,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
         <v>7</v>
       </c>
@@ -2934,7 +2927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
         <v>7</v>
       </c>
@@ -2948,13 +2941,13 @@
         <v>38362.5</v>
       </c>
       <c r="G107" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H107" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="108" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>7</v>
       </c>
@@ -2968,13 +2961,13 @@
         <v>47767.5</v>
       </c>
       <c r="G108" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H108" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>7</v>
       </c>
@@ -2988,13 +2981,13 @@
         <v>48633.75</v>
       </c>
       <c r="G109" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H109" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
         <v>7</v>
       </c>
@@ -3008,13 +3001,13 @@
         <v>46901.25</v>
       </c>
       <c r="G110" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H110" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
         <v>7</v>
       </c>
@@ -3028,13 +3021,13 @@
         <v>44426.25</v>
       </c>
       <c r="G111" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H111" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
         <v>13</v>
       </c>
@@ -3048,13 +3041,13 @@
         <v>64912.5</v>
       </c>
       <c r="G112" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H112" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="113" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
         <v>7</v>
       </c>
@@ -3068,13 +3061,13 @@
         <v>15840</v>
       </c>
       <c r="G113" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H113" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
         <v>46</v>
       </c>
@@ -3088,13 +3081,13 @@
         <v>9000</v>
       </c>
       <c r="G114" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H114" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="115" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
         <v>7</v>
       </c>
@@ -3108,13 +3101,13 @@
         <v>39600</v>
       </c>
       <c r="G115" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H115" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
         <v>48</v>
       </c>
@@ -3134,7 +3127,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
         <v>7</v>
       </c>
@@ -3148,13 +3141,13 @@
         <v>16200</v>
       </c>
       <c r="G117" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H117" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="118" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
         <v>7</v>
       </c>
@@ -3168,13 +3161,13 @@
         <v>43065</v>
       </c>
       <c r="G118" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H118" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
         <v>7</v>
       </c>
@@ -3194,7 +3187,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C120" t="s">
         <v>48</v>
       </c>
@@ -3214,7 +3207,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="121" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
         <v>13</v>
       </c>
@@ -3234,7 +3227,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="122" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C122" t="s">
         <v>7</v>
       </c>
@@ -3254,7 +3247,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="123" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
         <v>48</v>
       </c>
@@ -3274,7 +3267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C124" t="s">
         <v>13</v>
       </c>
@@ -3294,7 +3287,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C125" t="s">
         <v>7</v>
       </c>
@@ -3314,7 +3307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C126" t="s">
         <v>48</v>
       </c>
@@ -3328,13 +3321,13 @@
         <v>43680</v>
       </c>
       <c r="G126" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H126" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C127" t="s">
         <v>7</v>
       </c>
@@ -3348,13 +3341,13 @@
         <v>3780</v>
       </c>
       <c r="G127" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H127" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C128" t="s">
         <v>7</v>
       </c>
@@ -3368,13 +3361,13 @@
         <v>37800</v>
       </c>
       <c r="G128" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H128" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="129" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C129" t="s">
         <v>7</v>
       </c>
@@ -3388,13 +3381,13 @@
         <v>39060</v>
       </c>
       <c r="G129" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H129" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C130" t="s">
         <v>7</v>
       </c>
@@ -3408,13 +3401,13 @@
         <v>42806.25</v>
       </c>
       <c r="G130" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H130" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C131" t="s">
         <v>7</v>
       </c>
@@ -3428,13 +3421,13 @@
         <v>42693.75</v>
       </c>
       <c r="G131" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H131" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C132" t="s">
         <v>7</v>
       </c>
@@ -3448,13 +3441,13 @@
         <v>13351.5</v>
       </c>
       <c r="G132" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H132" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C133" t="s">
         <v>13</v>
       </c>
@@ -3468,13 +3461,13 @@
         <v>31387.5</v>
       </c>
       <c r="G133" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H133" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="134" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C134" t="s">
         <v>7</v>
       </c>
@@ -3488,13 +3481,13 @@
         <v>14850</v>
       </c>
       <c r="G134" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H134" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C135" t="s">
         <v>46</v>
       </c>
@@ -3508,13 +3501,13 @@
         <v>48375</v>
       </c>
       <c r="G135" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H135" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="136" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C136" t="s">
         <v>7</v>
       </c>
@@ -3528,13 +3521,13 @@
         <v>37237.5</v>
       </c>
       <c r="G136" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H136" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C137" t="s">
         <v>13</v>
       </c>
@@ -3554,7 +3547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C138" t="s">
         <v>48</v>
       </c>
@@ -3574,7 +3567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C139" t="s">
         <v>7</v>
       </c>
@@ -3588,13 +3581,13 @@
         <v>46091.25</v>
       </c>
       <c r="G139" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H139" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C140" t="s">
         <v>48</v>
       </c>
@@ -3614,7 +3607,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="141" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C141" t="s">
         <v>13</v>
       </c>
@@ -3634,7 +3627,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="142" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C142" t="s">
         <v>7</v>
       </c>
@@ -3654,7 +3647,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="143" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C143" t="s">
         <v>48</v>
       </c>
@@ -3674,7 +3667,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C144" t="s">
         <v>13</v>
       </c>
@@ -3694,7 +3687,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C145" t="s">
         <v>7</v>
       </c>
@@ -3714,7 +3707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C146" t="s">
         <v>48</v>
       </c>
@@ -3728,13 +3721,13 @@
         <v>44100</v>
       </c>
       <c r="G146" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H146" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C147" t="s">
         <v>7</v>
       </c>
@@ -3748,13 +3741,13 @@
         <v>38925</v>
       </c>
       <c r="G147" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H147" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="148" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C148" t="s">
         <v>7</v>
       </c>
@@ -3768,13 +3761,13 @@
         <v>39903.75</v>
       </c>
       <c r="G148" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C149" t="s">
         <v>48</v>
       </c>
@@ -3788,13 +3781,13 @@
         <v>22680</v>
       </c>
       <c r="G149" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H149" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C150" t="s">
         <v>7</v>
       </c>
@@ -3808,13 +3801,13 @@
         <v>48813.75</v>
       </c>
       <c r="G150" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C151" t="s">
         <v>48</v>
       </c>
@@ -3828,13 +3821,13 @@
         <v>29193.75</v>
       </c>
       <c r="G151" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H151" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C152" t="s">
         <v>7</v>
       </c>
@@ -3848,13 +3841,13 @@
         <v>47700</v>
       </c>
       <c r="G152" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H152" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="153" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C153" t="s">
         <v>7</v>
       </c>
@@ -3868,13 +3861,13 @@
         <v>49927.5</v>
       </c>
       <c r="G153" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C154" t="s">
         <v>13</v>
       </c>
@@ -3888,13 +3881,13 @@
         <v>41625</v>
       </c>
       <c r="G154" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H154" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="155" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C155" t="s">
         <v>48</v>
       </c>
@@ -3908,13 +3901,13 @@
         <v>38666.25</v>
       </c>
       <c r="G155" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C156" t="s">
         <v>48</v>
       </c>
@@ -3928,13 +3921,13 @@
         <v>42502.5</v>
       </c>
       <c r="G156" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H156" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C157" t="s">
         <v>7</v>
       </c>
@@ -3948,13 +3941,13 @@
         <v>37800</v>
       </c>
       <c r="G157" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H157" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C158" t="s">
         <v>48</v>
       </c>
@@ -3968,13 +3961,13 @@
         <v>19125</v>
       </c>
       <c r="G158" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H158" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="159" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C159" t="s">
         <v>46</v>
       </c>
@@ -3988,13 +3981,13 @@
         <v>40950</v>
       </c>
       <c r="G159" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H159" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="160" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C160" t="s">
         <v>7</v>
       </c>
@@ -4008,13 +4001,13 @@
         <v>39093.75</v>
       </c>
       <c r="G160" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H160" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C161" t="s">
         <v>7</v>
       </c>
@@ -4034,7 +4027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C162" t="s">
         <v>7</v>
       </c>
@@ -4054,7 +4047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C163" t="s">
         <v>7</v>
       </c>
@@ -4068,13 +4061,13 @@
         <v>43425</v>
       </c>
       <c r="G163" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C164" t="s">
         <v>7</v>
       </c>
@@ -4094,7 +4087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C165" t="s">
         <v>48</v>
       </c>
@@ -4114,7 +4107,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="166" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C166" t="s">
         <v>7</v>
       </c>
@@ -4134,7 +4127,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="167" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C167" t="s">
         <v>48</v>
       </c>
@@ -4154,7 +4147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C168" t="s">
         <v>7</v>
       </c>
@@ -4174,7 +4167,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C169" t="s">
         <v>7</v>
       </c>
@@ -4194,7 +4187,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="170" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C170" t="s">
         <v>7</v>
       </c>
@@ -4208,13 +4201,13 @@
         <v>51070.175000000003</v>
       </c>
       <c r="G170" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H170" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="171" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C171" t="s">
         <v>7</v>
       </c>
@@ -4228,13 +4221,13 @@
         <v>45720</v>
       </c>
       <c r="G171" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C172" t="s">
         <v>48</v>
       </c>
@@ -4248,13 +4241,13 @@
         <v>51240</v>
       </c>
       <c r="G172" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H172" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C173" t="s">
         <v>7</v>
       </c>
@@ -4268,13 +4261,13 @@
         <v>55125</v>
       </c>
       <c r="G173" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C174" t="s">
         <v>48</v>
       </c>
@@ -4288,13 +4281,13 @@
         <v>56733.75</v>
       </c>
       <c r="G174" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C175" t="s">
         <v>7</v>
       </c>
@@ -4308,13 +4301,13 @@
         <v>49159.025000000001</v>
       </c>
       <c r="G175" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H175" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="176" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C176" t="s">
         <v>7</v>
       </c>
@@ -4328,13 +4321,13 @@
         <v>50670</v>
       </c>
       <c r="G176" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C177" t="s">
         <v>13</v>
       </c>
@@ -4348,13 +4341,13 @@
         <v>43637.925000000003</v>
       </c>
       <c r="G177" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H177" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="178" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C178" t="s">
         <v>48</v>
       </c>
@@ -4368,13 +4361,13 @@
         <v>20160</v>
       </c>
       <c r="G178" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H178" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C179" t="s">
         <v>48</v>
       </c>
@@ -4388,13 +4381,13 @@
         <v>52526.25</v>
       </c>
       <c r="G179" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H179" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C180" t="s">
         <v>48</v>
       </c>
@@ -4408,13 +4401,13 @@
         <v>55710</v>
       </c>
       <c r="G180" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C181" t="s">
         <v>7</v>
       </c>
@@ -4428,13 +4421,13 @@
         <v>48937.5</v>
       </c>
       <c r="G181" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C182" t="s">
         <v>48</v>
       </c>
@@ -4448,13 +4441,13 @@
         <v>46292.3</v>
       </c>
       <c r="G182" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H182" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="183" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C183" t="s">
         <v>46</v>
       </c>
@@ -4468,13 +4461,13 @@
         <v>46186.125</v>
       </c>
       <c r="G183" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H183" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="184" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C184" t="s">
         <v>7</v>
       </c>
@@ -4488,13 +4481,13 @@
         <v>43987.5</v>
       </c>
       <c r="G184" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C185" t="s">
         <v>48</v>
       </c>
@@ -4514,7 +4507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C186" t="s">
         <v>48</v>
       </c>
@@ -4534,7 +4527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C187" t="s">
         <v>7</v>
       </c>
@@ -4548,13 +4541,13 @@
         <v>45967.5</v>
       </c>
       <c r="G187" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C188" t="s">
         <v>48</v>
       </c>
@@ -4574,7 +4567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C189" t="s">
         <v>48</v>
       </c>
@@ -4594,7 +4587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C190" t="s">
         <v>48</v>
       </c>
@@ -4614,7 +4607,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="191" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C191" t="s">
         <v>7</v>
       </c>
@@ -4634,7 +4627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="192" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C192" t="s">
         <v>7</v>
       </c>
@@ -4654,7 +4647,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="193" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C193" t="s">
         <v>48</v>
       </c>
@@ -4674,7 +4667,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="194" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C194" t="s">
         <v>7</v>
       </c>
@@ -4688,13 +4681,13 @@
         <v>50539.3</v>
       </c>
       <c r="G194" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H194" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="195" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C195" t="s">
         <v>7</v>
       </c>
@@ -4708,13 +4701,13 @@
         <v>43987.5</v>
       </c>
       <c r="G195" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="196" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C196" t="s">
         <v>48</v>
       </c>
@@ -4728,13 +4721,13 @@
         <v>47460</v>
       </c>
       <c r="G196" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H196" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="197" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C197" t="s">
         <v>7</v>
       </c>
@@ -4748,13 +4741,13 @@
         <v>47081.25</v>
       </c>
       <c r="G197" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C198" t="s">
         <v>48</v>
       </c>
@@ -4768,13 +4761,13 @@
         <v>47823.75</v>
       </c>
       <c r="G198" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C199" t="s">
         <v>7</v>
       </c>
@@ -4788,13 +4781,13 @@
         <v>49583.7</v>
       </c>
       <c r="G199" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H199" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="200" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C200" t="s">
         <v>7</v>
       </c>
@@ -4808,13 +4801,13 @@
         <v>44977.5</v>
       </c>
       <c r="G200" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C201" t="s">
         <v>13</v>
       </c>
@@ -4828,13 +4821,13 @@
         <v>35993.300000000003</v>
       </c>
       <c r="G201" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H201" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="202" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C202" t="s">
         <v>48</v>
       </c>
@@ -4848,13 +4841,13 @@
         <v>46200</v>
       </c>
       <c r="G202" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H202" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="203" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C203" t="s">
         <v>48</v>
       </c>
@@ -4868,13 +4861,13 @@
         <v>47576.25</v>
       </c>
       <c r="G203" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C204" t="s">
         <v>48</v>
       </c>
@@ -4888,13 +4881,13 @@
         <v>45596.25</v>
       </c>
       <c r="G204" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C205" t="s">
         <v>7</v>
       </c>
@@ -4908,13 +4901,13 @@
         <v>45967.5</v>
       </c>
       <c r="G205" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C206" t="s">
         <v>48</v>
       </c>
@@ -4928,13 +4921,13 @@
         <v>47723.7</v>
       </c>
       <c r="G206" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H206" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="207" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C207" t="s">
         <v>46</v>
       </c>
@@ -4948,13 +4941,13 @@
         <v>47276.6</v>
       </c>
       <c r="G207" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H207" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="208" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C208" t="s">
         <v>66</v>
       </c>
@@ -4968,13 +4961,13 @@
         <v>25370.7</v>
       </c>
       <c r="G208" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H208" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="209" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C209" t="s">
         <v>7</v>
       </c>
@@ -4988,13 +4981,13 @@
         <v>45348.75</v>
       </c>
       <c r="G209" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="210" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C210" t="s">
         <v>7</v>
       </c>
@@ -5014,7 +5007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="211" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C211" t="s">
         <v>7</v>
       </c>
@@ -5034,7 +5027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="212" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C212" t="s">
         <v>7</v>
       </c>
@@ -5054,7 +5047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C213" t="s">
         <v>48</v>
       </c>
@@ -5074,7 +5067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="214" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C214" t="s">
         <v>7</v>
       </c>
@@ -5094,7 +5087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="215" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C215" t="s">
         <v>7</v>
       </c>
@@ -5108,13 +5101,13 @@
         <v>29070</v>
       </c>
       <c r="G215" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="216" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C216" t="s">
         <v>7</v>
       </c>
@@ -5128,13 +5121,13 @@
         <v>26775</v>
       </c>
       <c r="G216" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H216" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="217" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C217" t="s">
         <v>7</v>
       </c>
@@ -5148,13 +5141,13 @@
         <v>30993.75</v>
       </c>
       <c r="G217" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C218" t="s">
         <v>48</v>
       </c>
@@ -5168,13 +5161,13 @@
         <v>26250</v>
       </c>
       <c r="G218" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H218" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="219" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C219" t="s">
         <v>7</v>
       </c>
@@ -5188,13 +5181,13 @@
         <v>29295</v>
       </c>
       <c r="G219" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="220" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C220" t="s">
         <v>48</v>
       </c>
@@ -5208,13 +5201,13 @@
         <v>33052.5</v>
       </c>
       <c r="G220" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C221" t="s">
         <v>7</v>
       </c>
@@ -5228,13 +5221,13 @@
         <v>23626.1</v>
       </c>
       <c r="G221" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H221" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="222" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C222" t="s">
         <v>7</v>
       </c>
@@ -5248,13 +5241,13 @@
         <v>35055</v>
       </c>
       <c r="G222" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C223" t="s">
         <v>7</v>
       </c>
@@ -5268,13 +5261,13 @@
         <v>22949.9</v>
       </c>
       <c r="G223" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H223" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="224" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C224" t="s">
         <v>48</v>
       </c>
@@ -5288,13 +5281,13 @@
         <v>27930</v>
       </c>
       <c r="G224" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H224" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="225" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C225" t="s">
         <v>48</v>
       </c>
@@ -5308,13 +5301,13 @@
         <v>32703.75</v>
       </c>
       <c r="G225" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="226" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C226" t="s">
         <v>48</v>
       </c>
@@ -5328,13 +5321,13 @@
         <v>34998.75</v>
       </c>
       <c r="G226" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="227" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C227" t="s">
         <v>7</v>
       </c>
@@ -5348,13 +5341,13 @@
         <v>28800</v>
       </c>
       <c r="G227" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="228" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C228" t="s">
         <v>48</v>
       </c>
@@ -5368,13 +5361,13 @@
         <v>23850</v>
       </c>
       <c r="G228" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H228" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="229" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C229" t="s">
         <v>46</v>
       </c>
@@ -5388,13 +5381,13 @@
         <v>28325.7</v>
       </c>
       <c r="G229" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H229" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="230" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C230" t="s">
         <v>66</v>
       </c>
@@ -5408,13 +5401,13 @@
         <v>19800</v>
       </c>
       <c r="G230" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H230" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="231" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C231" t="s">
         <v>7</v>
       </c>
@@ -5428,13 +5421,13 @@
         <v>28057.5</v>
       </c>
       <c r="G231" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="232" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C232" t="s">
         <v>48</v>
       </c>
@@ -5454,7 +5447,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="233" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C233" t="s">
         <v>7</v>
       </c>
@@ -5474,7 +5467,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="234" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C234" t="s">
         <v>48</v>
       </c>
@@ -5494,7 +5487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="235" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C235" t="s">
         <v>48</v>
       </c>
@@ -5514,7 +5507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="236" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C236" t="s">
         <v>7</v>
       </c>
@@ -5534,7 +5527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="237" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C237" t="s">
         <v>7</v>
       </c>
@@ -5548,13 +5541,13 @@
         <v>29250</v>
       </c>
       <c r="G237" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H237" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="238" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C238" t="s">
         <v>7</v>
       </c>
@@ -5568,13 +5561,13 @@
         <v>23625</v>
       </c>
       <c r="G238" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="239" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C239" t="s">
         <v>48</v>
       </c>
@@ -5588,13 +5581,13 @@
         <v>28455</v>
       </c>
       <c r="G239" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H239" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="240" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C240" t="s">
         <v>7</v>
       </c>
@@ -5608,13 +5601,13 @@
         <v>15187.5</v>
       </c>
       <c r="G240" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="241" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C241" t="s">
         <v>48</v>
       </c>
@@ -5628,13 +5621,13 @@
         <v>29925</v>
       </c>
       <c r="G241" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C242" t="s">
         <v>48</v>
       </c>
@@ -5648,13 +5641,13 @@
         <v>24300</v>
       </c>
       <c r="G242" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H242" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="243" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C243" t="s">
         <v>48</v>
       </c>
@@ -5668,13 +5661,13 @@
         <v>6637.5</v>
       </c>
       <c r="G243" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H243" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="244" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C244" t="s">
         <v>7</v>
       </c>
@@ -5688,13 +5681,13 @@
         <v>25200</v>
       </c>
       <c r="G244" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="245" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C245" t="s">
         <v>7</v>
       </c>
@@ -5708,13 +5701,13 @@
         <v>13500</v>
       </c>
       <c r="G245" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H245" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="246" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C246" t="s">
         <v>48</v>
       </c>
@@ -5728,13 +5721,13 @@
         <v>17220</v>
       </c>
       <c r="G246" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H246" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="247" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C247" t="s">
         <v>48</v>
       </c>
@@ -5748,13 +5741,13 @@
         <v>29565</v>
       </c>
       <c r="G247" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="248" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C248" t="s">
         <v>48</v>
       </c>
@@ -5768,13 +5761,13 @@
         <v>26775</v>
       </c>
       <c r="G248" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="249" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C249" t="s">
         <v>7</v>
       </c>
@@ -5788,13 +5781,13 @@
         <v>21150</v>
       </c>
       <c r="G249" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="250" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C250" t="s">
         <v>48</v>
       </c>
@@ -5808,13 +5801,13 @@
         <v>0</v>
       </c>
       <c r="G250" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H250" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="251" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C251" t="s">
         <v>46</v>
       </c>
@@ -5828,13 +5821,13 @@
         <v>7152.96</v>
       </c>
       <c r="G251" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H251" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="252" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C252" t="s">
         <v>66</v>
       </c>
@@ -5848,13 +5841,13 @@
         <v>28611.84</v>
       </c>
       <c r="G252" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H252" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="253" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C253" t="s">
         <v>7</v>
       </c>
@@ -5868,13 +5861,13 @@
         <v>22702.5</v>
       </c>
       <c r="G253" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="254" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C254" t="s">
         <v>69</v>
       </c>
@@ -5894,7 +5887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="255" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C255" t="s">
         <v>7</v>
       </c>
@@ -5914,7 +5907,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="256" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C256" t="s">
         <v>7</v>
       </c>
@@ -5934,7 +5927,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="257" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C257" t="s">
         <v>46</v>
       </c>
@@ -5954,7 +5947,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="258" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C258" t="s">
         <v>48</v>
       </c>
@@ -5974,7 +5967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="259" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C259" t="s">
         <v>69</v>
       </c>
@@ -5994,7 +5987,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="260" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C260" t="s">
         <v>48</v>
       </c>
@@ -6014,7 +6007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="261" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C261" t="s">
         <v>48</v>
       </c>
@@ -6034,7 +6027,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="262" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C262" t="s">
         <v>7</v>
       </c>
@@ -6054,7 +6047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="263" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C263" t="s">
         <v>7</v>
       </c>
@@ -6074,7 +6067,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="264" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C264" t="s">
         <v>7</v>
       </c>
@@ -6088,13 +6081,13 @@
         <v>45899.45</v>
       </c>
       <c r="G264" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H264" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="265" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C265" t="s">
         <v>7</v>
       </c>
@@ -6108,13 +6101,13 @@
         <v>52593.75</v>
       </c>
       <c r="G265" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="266" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C266" t="s">
         <v>48</v>
       </c>
@@ -6128,13 +6121,13 @@
         <v>41895</v>
       </c>
       <c r="G266" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H266" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="267" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C267" t="s">
         <v>7</v>
       </c>
@@ -6148,13 +6141,13 @@
         <v>50737.5</v>
       </c>
       <c r="G267" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="268" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C268" t="s">
         <v>48</v>
       </c>
@@ -6168,13 +6161,13 @@
         <v>52965</v>
       </c>
       <c r="G268" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="269" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C269" t="s">
         <v>48</v>
       </c>
@@ -6188,13 +6181,13 @@
         <v>54000.61</v>
       </c>
       <c r="G269" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H269" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="270" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C270" t="s">
         <v>7</v>
       </c>
@@ -6208,13 +6201,13 @@
         <v>51232.5</v>
       </c>
       <c r="G270" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="271" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C271" t="s">
         <v>7</v>
       </c>
@@ -6228,13 +6221,13 @@
         <v>44583.75</v>
       </c>
       <c r="G271" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="272" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C272" t="s">
         <v>48</v>
       </c>
@@ -6248,13 +6241,13 @@
         <v>42862.85</v>
       </c>
       <c r="G272" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H272" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="273" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C273" t="s">
         <v>48</v>
       </c>
@@ -6268,13 +6261,13 @@
         <v>15172.5</v>
       </c>
       <c r="G273" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H273" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="274" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C274" t="s">
         <v>7</v>
       </c>
@@ -6288,13 +6281,13 @@
         <v>15172.5</v>
       </c>
       <c r="G274" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H274" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="275" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C275" t="s">
         <v>69</v>
       </c>
@@ -6308,13 +6301,13 @@
         <v>34377.75</v>
       </c>
       <c r="G275" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="276" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C276" t="s">
         <v>48</v>
       </c>
@@ -6328,13 +6321,13 @@
         <v>22918.5</v>
       </c>
       <c r="G276" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="277" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C277" t="s">
         <v>48</v>
       </c>
@@ -6348,13 +6341,13 @@
         <v>53460</v>
       </c>
       <c r="G277" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="278" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C278" t="s">
         <v>7</v>
       </c>
@@ -6368,13 +6361,13 @@
         <v>51356.25</v>
       </c>
       <c r="G278" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="279" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C279" t="s">
         <v>48</v>
       </c>
@@ -6388,13 +6381,13 @@
         <v>52650.26</v>
       </c>
       <c r="G279" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H279" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="280" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C280" t="s">
         <v>46</v>
       </c>
@@ -6408,13 +6401,13 @@
         <v>19800.29</v>
       </c>
       <c r="G280" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H280" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="281" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C281" t="s">
         <v>7</v>
       </c>
@@ -6428,13 +6421,13 @@
         <v>44549.53</v>
       </c>
       <c r="G281" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H281" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="282" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C282" t="s">
         <v>7</v>
       </c>
@@ -6448,13 +6441,13 @@
         <v>52098.75</v>
       </c>
       <c r="G282" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="283" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C283" t="s">
         <v>7</v>
       </c>
@@ -6474,7 +6467,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="284" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C284" t="s">
         <v>7</v>
       </c>
@@ -6494,7 +6487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="285" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C285" t="s">
         <v>69</v>
       </c>
@@ -6514,7 +6507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="286" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C286" t="s">
         <v>46</v>
       </c>
@@ -6534,7 +6527,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="287" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C287" t="s">
         <v>69</v>
       </c>
@@ -6554,7 +6547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="288" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C288" t="s">
         <v>69</v>
       </c>
@@ -6574,7 +6567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="289" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C289" t="s">
         <v>7</v>
       </c>
@@ -6594,7 +6587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="290" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C290" t="s">
         <v>48</v>
       </c>
@@ -6614,7 +6607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="291" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C291" t="s">
         <v>7</v>
       </c>
@@ -6634,7 +6627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="292" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C292" t="s">
         <v>48</v>
       </c>
@@ -6654,7 +6647,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="293" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C293" t="s">
         <v>48</v>
       </c>
@@ -6674,7 +6667,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="294" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C294" t="s">
         <v>7</v>
       </c>
@@ -6694,7 +6687,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="295" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C295" t="s">
         <v>7</v>
       </c>
@@ -6714,7 +6707,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="296" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C296" t="s">
         <v>69</v>
       </c>
@@ -6734,7 +6727,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="297" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C297" t="s">
         <v>48</v>
       </c>
@@ -6754,7 +6747,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="298" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C298" t="s">
         <v>69</v>
       </c>
@@ -6768,13 +6761,13 @@
         <v>47936.25</v>
       </c>
       <c r="G298" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="299" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C299" t="s">
         <v>7</v>
       </c>
@@ -6788,13 +6781,13 @@
         <v>53550.42</v>
       </c>
       <c r="G299" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H299" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="300" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C300" t="s">
         <v>7</v>
       </c>
@@ -6808,13 +6801,13 @@
         <v>49275</v>
       </c>
       <c r="G300" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="301" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C301" t="s">
         <v>48</v>
       </c>
@@ -6828,13 +6821,13 @@
         <v>60690</v>
       </c>
       <c r="G301" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H301" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="302" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C302" t="s">
         <v>7</v>
       </c>
@@ -6848,13 +6841,13 @@
         <v>46698.75</v>
       </c>
       <c r="G302" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="303" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C303" t="s">
         <v>48</v>
       </c>
@@ -6868,13 +6861,13 @@
         <v>62673.75</v>
       </c>
       <c r="G303" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="304" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C304" t="s">
         <v>48</v>
       </c>
@@ -6888,13 +6881,13 @@
         <v>57374.85</v>
       </c>
       <c r="G304" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H304" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="305" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="305" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C305" t="s">
         <v>7</v>
       </c>
@@ -6908,13 +6901,13 @@
         <v>50051.25</v>
       </c>
       <c r="G305" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="306" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C306" t="s">
         <v>7</v>
       </c>
@@ -6928,13 +6921,13 @@
         <v>55248.75</v>
       </c>
       <c r="G306" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="307" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="307" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C307" t="s">
         <v>69</v>
       </c>
@@ -6948,13 +6941,13 @@
         <v>24300.27</v>
       </c>
       <c r="G307" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H307" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="308" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="308" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C308" t="s">
         <v>48</v>
       </c>
@@ -6968,13 +6961,13 @@
         <v>24300.27</v>
       </c>
       <c r="G308" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H308" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="309" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="309" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C309" t="s">
         <v>69</v>
       </c>
@@ -6988,13 +6981,13 @@
         <v>44842.5</v>
       </c>
       <c r="G309" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="310" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="310" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C310" t="s">
         <v>48</v>
       </c>
@@ -7008,13 +7001,13 @@
         <v>25410</v>
       </c>
       <c r="G310" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H310" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="311" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="311" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C311" t="s">
         <v>7</v>
       </c>
@@ -7028,13 +7021,13 @@
         <v>25410</v>
       </c>
       <c r="G311" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H311" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="312" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C312" t="s">
         <v>69</v>
       </c>
@@ -7048,13 +7041,13 @@
         <v>34411.5</v>
       </c>
       <c r="G312" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="313" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="313" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C313" t="s">
         <v>48</v>
       </c>
@@ -7068,13 +7061,13 @@
         <v>22941</v>
       </c>
       <c r="G313" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="314" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="314" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C314" t="s">
         <v>48</v>
       </c>
@@ -7088,13 +7081,13 @@
         <v>52773.75</v>
       </c>
       <c r="G314" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="315" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="315" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C315" t="s">
         <v>7</v>
       </c>
@@ -7108,13 +7101,13 @@
         <v>52402.5</v>
       </c>
       <c r="G315" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="316" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C316" t="s">
         <v>48</v>
       </c>
@@ -7128,13 +7121,13 @@
         <v>54112.14</v>
       </c>
       <c r="G316" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H316" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="317" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="317" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C317" t="s">
         <v>69</v>
       </c>
@@ -7148,13 +7141,13 @@
         <v>41511.760000000002</v>
       </c>
       <c r="G317" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H317" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="318" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C318" t="s">
         <v>46</v>
       </c>
@@ -7168,13 +7161,13 @@
         <v>39600.57</v>
       </c>
       <c r="G318" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H318" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="319" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C319" t="s">
         <v>69</v>
       </c>
@@ -7188,13 +7181,13 @@
         <v>32624.2</v>
       </c>
       <c r="G319" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H319" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="320" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C320" t="s">
         <v>7</v>
       </c>
@@ -7208,13 +7201,13 @@
         <v>52312.73</v>
       </c>
       <c r="G320" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H320" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="321" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="321" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C321" t="s">
         <v>7</v>
       </c>
@@ -7228,13 +7221,13 @@
         <v>45607.5</v>
       </c>
       <c r="G321" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="322" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="322" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C322" t="s">
         <v>85</v>
       </c>
@@ -7254,7 +7247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="323" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C323" t="s">
         <v>7</v>
       </c>
@@ -7274,7 +7267,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="324" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C324" t="s">
         <v>7</v>
       </c>
@@ -7294,7 +7287,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="325" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C325" t="s">
         <v>46</v>
       </c>
@@ -7314,7 +7307,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="326" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C326" t="s">
         <v>69</v>
       </c>
@@ -7334,7 +7327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="327" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C327" t="s">
         <v>69</v>
       </c>
@@ -7354,7 +7347,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="328" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C328" t="s">
         <v>7</v>
       </c>
@@ -7374,7 +7367,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="329" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C329" t="s">
         <v>7</v>
       </c>
@@ -7394,7 +7387,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="330" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C330" t="s">
         <v>48</v>
       </c>
@@ -7414,7 +7407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="331" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="331" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C331" t="s">
         <v>7</v>
       </c>
@@ -7434,7 +7427,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="332" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C332" t="s">
         <v>85</v>
       </c>
@@ -7454,7 +7447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="333" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C333" t="s">
         <v>48</v>
       </c>
@@ -7474,7 +7467,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="334" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C334" t="s">
         <v>48</v>
       </c>
@@ -7494,7 +7487,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="335" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C335" t="s">
         <v>7</v>
       </c>
@@ -7514,7 +7507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="336" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C336" t="s">
         <v>7</v>
       </c>
@@ -7534,7 +7527,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="337" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="337" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C337" t="s">
         <v>48</v>
       </c>
@@ -7554,7 +7547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="338" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="338" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C338" t="s">
         <v>69</v>
       </c>
@@ -7568,13 +7561,13 @@
         <v>64035</v>
       </c>
       <c r="G338" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="339" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="339" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C339" t="s">
         <v>7</v>
       </c>
@@ -7588,13 +7581,13 @@
         <v>47587.64</v>
       </c>
       <c r="G339" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H339" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="340" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="340" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C340" t="s">
         <v>7</v>
       </c>
@@ -7608,13 +7601,13 @@
         <v>49680</v>
       </c>
       <c r="G340" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="341" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="341" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C341" t="s">
         <v>48</v>
       </c>
@@ -7628,13 +7621,13 @@
         <v>60480</v>
       </c>
       <c r="G341" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H341" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="342" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="342" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C342" t="s">
         <v>7</v>
       </c>
@@ -7648,13 +7641,13 @@
         <v>18000</v>
       </c>
       <c r="G342" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="343" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="343" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C343" t="s">
         <v>48</v>
       </c>
@@ -7668,13 +7661,13 @@
         <v>54810</v>
       </c>
       <c r="G343" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="344" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="344" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C344" t="s">
         <v>48</v>
       </c>
@@ -7688,13 +7681,13 @@
         <v>51412.06</v>
       </c>
       <c r="G344" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H344" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="345" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="345" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C345" t="s">
         <v>7</v>
       </c>
@@ -7708,13 +7701,13 @@
         <v>50670</v>
       </c>
       <c r="G345" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="346" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="346" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C346" t="s">
         <v>7</v>
       </c>
@@ -7728,13 +7721,13 @@
         <v>53145</v>
       </c>
       <c r="G346" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="347" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="347" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C347" t="s">
         <v>69</v>
       </c>
@@ -7748,13 +7741,13 @@
         <v>24300.27</v>
       </c>
       <c r="G347" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H347" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="348" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="348" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C348" t="s">
         <v>48</v>
       </c>
@@ -7768,13 +7761,13 @@
         <v>24300.272199999999</v>
       </c>
       <c r="G348" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H348" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="349" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="349" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C349" t="s">
         <v>69</v>
       </c>
@@ -7788,13 +7781,13 @@
         <v>50883.75</v>
       </c>
       <c r="G349" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="350" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="350" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C350" t="s">
         <v>48</v>
       </c>
@@ -7808,13 +7801,13 @@
         <v>2835</v>
       </c>
       <c r="G350" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H350" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="351" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="351" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C351" t="s">
         <v>7</v>
       </c>
@@ -7828,13 +7821,13 @@
         <v>2835</v>
       </c>
       <c r="G351" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H351" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="352" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="352" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C352" t="s">
         <v>69</v>
       </c>
@@ -7848,13 +7841,13 @@
         <v>37638</v>
       </c>
       <c r="G352" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="353" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="353" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C353" t="s">
         <v>48</v>
       </c>
@@ -7868,13 +7861,13 @@
         <v>25092</v>
       </c>
       <c r="G353" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="354" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="354" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C354" t="s">
         <v>48</v>
       </c>
@@ -7888,13 +7881,13 @@
         <v>47328.75</v>
       </c>
       <c r="G354" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="355" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="355" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C355" t="s">
         <v>7</v>
       </c>
@@ -7908,13 +7901,13 @@
         <v>43616.25</v>
       </c>
       <c r="G355" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="356" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="356" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C356" t="s">
         <v>48</v>
       </c>
@@ -7928,13 +7921,13 @@
         <v>49274.95</v>
       </c>
       <c r="G356" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H356" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="357" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="357" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C357" t="s">
         <v>69</v>
       </c>
@@ -7948,13 +7941,13 @@
         <v>52200.959999999999</v>
       </c>
       <c r="G357" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H357" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="358" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="358" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C358" t="s">
         <v>46</v>
       </c>
@@ -7968,13 +7961,13 @@
         <v>30599.02</v>
       </c>
       <c r="G358" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H358" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="359" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="359" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C359" t="s">
         <v>69</v>
       </c>
@@ -7988,13 +7981,13 @@
         <v>51749.43</v>
       </c>
       <c r="G359" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H359" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="360" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="360" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C360" t="s">
         <v>7</v>
       </c>
@@ -8008,13 +8001,13 @@
         <v>42075.05</v>
       </c>
       <c r="G360" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H360" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="361" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="361" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C361" t="s">
         <v>7</v>
       </c>
@@ -8028,13 +8021,13 @@
         <v>44741.25</v>
       </c>
       <c r="G361" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="362" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="362" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C362" t="s">
         <v>85</v>
       </c>
@@ -8054,7 +8047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="363" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="363" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C363" t="s">
         <v>7</v>
       </c>
@@ -8074,7 +8067,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="364" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="364" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C364" t="s">
         <v>46</v>
       </c>
@@ -8094,7 +8087,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="365" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="365" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C365" t="s">
         <v>7</v>
       </c>
@@ -8114,7 +8107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="366" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="366" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C366" t="s">
         <v>69</v>
       </c>
@@ -8134,7 +8127,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="367" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="367" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C367" t="s">
         <v>48</v>
       </c>
@@ -8154,7 +8147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="368" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="368" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C368" t="s">
         <v>48</v>
       </c>
@@ -8174,7 +8167,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="369" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="369" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C369" t="s">
         <v>7</v>
       </c>
@@ -8194,7 +8187,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="370" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="370" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C370" t="s">
         <v>7</v>
       </c>
@@ -8214,7 +8207,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="371" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="371" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C371" t="s">
         <v>48</v>
       </c>
@@ -8234,7 +8227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="372" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="372" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C372" t="s">
         <v>69</v>
       </c>
@@ -8248,13 +8241,13 @@
         <v>51176.25</v>
       </c>
       <c r="G372" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="373" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="373" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C373" t="s">
         <v>7</v>
       </c>
@@ -8268,13 +8261,13 @@
         <v>35662</v>
       </c>
       <c r="G373" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H373" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="374" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="374" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C374" t="s">
         <v>7</v>
       </c>
@@ -8288,13 +8281,13 @@
         <v>39228.75</v>
       </c>
       <c r="G374" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="375" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="375" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C375" t="s">
         <v>69</v>
       </c>
@@ -8308,13 +8301,13 @@
         <v>1999.85</v>
       </c>
       <c r="G375" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H375" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="376" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="376" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C376" t="s">
         <v>48</v>
       </c>
@@ -8328,13 +8321,13 @@
         <v>1999.85</v>
       </c>
       <c r="G376" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H376" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="377" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="377" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C377" t="s">
         <v>7</v>
       </c>
@@ -8348,13 +8341,13 @@
         <v>1999.8484000000001</v>
       </c>
       <c r="G377" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H377" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="378" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="378" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C378" t="s">
         <v>48</v>
       </c>
@@ -8368,13 +8361,13 @@
         <v>43260</v>
       </c>
       <c r="G378" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H378" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="379" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="379" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C379" t="s">
         <v>48</v>
       </c>
@@ -8388,13 +8381,13 @@
         <v>51165</v>
       </c>
       <c r="G379" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="380" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="380" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C380" t="s">
         <v>48</v>
       </c>
@@ -8408,13 +8401,13 @@
         <v>48938.18</v>
       </c>
       <c r="G380" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H380" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="381" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="381" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C381" t="s">
         <v>7</v>
       </c>
@@ -8428,13 +8421,13 @@
         <v>2700</v>
       </c>
       <c r="G381" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="382" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="382" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C382" t="s">
         <v>7</v>
       </c>
@@ -8448,13 +8441,13 @@
         <v>7200</v>
       </c>
       <c r="G382" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="383" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="383" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C383" t="s">
         <v>69</v>
       </c>
@@ -8468,13 +8461,13 @@
         <v>21768.75</v>
       </c>
       <c r="G383" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H383" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="384" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="384" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C384" t="s">
         <v>48</v>
       </c>
@@ -8488,13 +8481,13 @@
         <v>21768.75</v>
       </c>
       <c r="G384" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H384" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="385" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="385" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C385" t="s">
         <v>69</v>
       </c>
@@ -8508,13 +8501,13 @@
         <v>48127.5</v>
       </c>
       <c r="G385" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="386" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="386" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C386" t="s">
         <v>69</v>
       </c>
@@ -8528,13 +8521,13 @@
         <v>30692.25</v>
       </c>
       <c r="G386" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="387" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="387" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C387" t="s">
         <v>48</v>
       </c>
@@ -8548,13 +8541,13 @@
         <v>20461.5</v>
       </c>
       <c r="G387" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="388" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="388" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C388" t="s">
         <v>85</v>
       </c>
@@ -8568,13 +8561,13 @@
         <v>40680</v>
       </c>
       <c r="G388" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="389" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="389" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C389" t="s">
         <v>48</v>
       </c>
@@ -8588,13 +8581,13 @@
         <v>48870</v>
       </c>
       <c r="G389" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="390" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="390" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C390" t="s">
         <v>85</v>
       </c>
@@ -8608,13 +8601,13 @@
         <v>43425</v>
       </c>
       <c r="G390" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="391" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="391" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C391" t="s">
         <v>7</v>
       </c>
@@ -8628,13 +8621,13 @@
         <v>47823.75</v>
       </c>
       <c r="G391" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="392" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="392" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C392" t="s">
         <v>48</v>
       </c>
@@ -8648,13 +8641,13 @@
         <v>42862.5</v>
       </c>
       <c r="G392" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H392" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="393" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="393" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C393" t="s">
         <v>69</v>
       </c>
@@ -8668,13 +8661,13 @@
         <v>41850</v>
       </c>
       <c r="G393" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H393" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="394" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="394" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C394" t="s">
         <v>46</v>
       </c>
@@ -8688,13 +8681,13 @@
         <v>30599.02</v>
       </c>
       <c r="G394" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H394" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="395" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="395" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C395" t="s">
         <v>69</v>
       </c>
@@ -8708,13 +8701,13 @@
         <v>45000</v>
       </c>
       <c r="G395" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H395" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="396" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="396" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C396" t="s">
         <v>7</v>
       </c>
@@ -8728,13 +8721,13 @@
         <v>9000</v>
       </c>
       <c r="G396" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H396" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="397" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="397" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C397" t="s">
         <v>7</v>
       </c>
@@ -8748,13 +8741,13 @@
         <v>999.18</v>
       </c>
       <c r="G397" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H397" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="398" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="398" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C398" t="s">
         <v>7</v>
       </c>
@@ -8768,13 +8761,13 @@
         <v>41861.25</v>
       </c>
       <c r="G398" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="399" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="399" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C399" t="s">
         <v>85</v>
       </c>
@@ -8794,7 +8787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="400" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="400" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C400" t="s">
         <v>69</v>
       </c>
@@ -8814,7 +8807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="401" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="401" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C401" t="s">
         <v>69</v>
       </c>
@@ -8834,7 +8827,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="402" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="402" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C402" t="s">
         <v>48</v>
       </c>
@@ -8854,7 +8847,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="403" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="403" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C403" t="s">
         <v>7</v>
       </c>
@@ -8874,7 +8867,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="404" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="404" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C404" t="s">
         <v>46</v>
       </c>
@@ -8894,7 +8887,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="405" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="405" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C405" t="s">
         <v>85</v>
       </c>
@@ -8914,7 +8907,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="406" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="406" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C406" t="s">
         <v>7</v>
       </c>
@@ -8934,7 +8927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="407" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="407" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C407" t="s">
         <v>69</v>
       </c>
@@ -8954,7 +8947,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="408" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="408" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C408" t="s">
         <v>104</v>
       </c>
@@ -8974,7 +8967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="409" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="409" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C409" t="s">
         <v>7</v>
       </c>
@@ -8994,7 +8987,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="410" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="410" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C410" t="s">
         <v>48</v>
       </c>
@@ -9014,7 +9007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="411" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="411" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C411" t="s">
         <v>48</v>
       </c>
@@ -9034,7 +9027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="412" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="412" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C412" t="s">
         <v>7</v>
       </c>
@@ -9054,7 +9047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="413" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="413" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C413" t="s">
         <v>69</v>
       </c>
@@ -9068,13 +9061,13 @@
         <v>41512</v>
       </c>
       <c r="G413" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="414" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="414" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C414" t="s">
         <v>69</v>
       </c>
@@ -9088,13 +9081,13 @@
         <v>19974.375</v>
       </c>
       <c r="G414" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H414" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="415" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="415" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C415" t="s">
         <v>7</v>
       </c>
@@ -9108,13 +9101,13 @@
         <v>19974.38</v>
       </c>
       <c r="G415" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H415" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="416" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="416" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C416" t="s">
         <v>69</v>
       </c>
@@ -9128,13 +9121,13 @@
         <v>3833.33</v>
       </c>
       <c r="G416" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H416" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="417" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="417" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C417" t="s">
         <v>48</v>
       </c>
@@ -9148,13 +9141,13 @@
         <v>3833.33</v>
       </c>
       <c r="G417" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H417" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="418" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="418" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C418" t="s">
         <v>7</v>
       </c>
@@ -9168,13 +9161,13 @@
         <v>3833.33</v>
       </c>
       <c r="G418" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H418" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="419" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="419" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C419" t="s">
         <v>48</v>
       </c>
@@ -9188,13 +9181,13 @@
         <v>48825</v>
       </c>
       <c r="G419" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H419" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="420" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="420" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C420" t="s">
         <v>48</v>
       </c>
@@ -9208,13 +9201,13 @@
         <v>56362</v>
       </c>
       <c r="G420" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="421" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="421" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C421" t="s">
         <v>48</v>
       </c>
@@ -9228,13 +9221,13 @@
         <v>46612.5</v>
       </c>
       <c r="G421" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H421" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="422" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="422" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C422" t="s">
         <v>69</v>
       </c>
@@ -9248,13 +9241,13 @@
         <v>25511.25</v>
       </c>
       <c r="G422" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H422" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="423" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="423" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C423" t="s">
         <v>48</v>
       </c>
@@ -9268,13 +9261,13 @@
         <v>25511.25</v>
       </c>
       <c r="G423" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H423" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="424" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="424" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C424" t="s">
         <v>69</v>
       </c>
@@ -9288,13 +9281,13 @@
         <v>53887.5</v>
       </c>
       <c r="G424" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="425" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="425" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C425" t="s">
         <v>69</v>
       </c>
@@ -9308,13 +9301,13 @@
         <v>35100</v>
       </c>
       <c r="G425" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="426" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="426" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C426" t="s">
         <v>48</v>
       </c>
@@ -9328,13 +9321,13 @@
         <v>23400</v>
       </c>
       <c r="G426" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="427" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="427" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C427" t="s">
         <v>85</v>
       </c>
@@ -9348,13 +9341,13 @@
         <v>34200</v>
       </c>
       <c r="G427" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="428" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="428" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C428" t="s">
         <v>48</v>
       </c>
@@ -9368,13 +9361,13 @@
         <v>49275</v>
       </c>
       <c r="G428" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="429" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="429" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C429" t="s">
         <v>85</v>
       </c>
@@ -9388,13 +9381,13 @@
         <v>23400</v>
       </c>
       <c r="G429" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="430" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="430" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C430" t="s">
         <v>7</v>
       </c>
@@ -9408,13 +9401,13 @@
         <v>44775</v>
       </c>
       <c r="G430" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="431" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="431" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C431" t="s">
         <v>69</v>
       </c>
@@ -9428,13 +9421,13 @@
         <v>40207.5</v>
       </c>
       <c r="G431" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H431" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="432" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="432" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C432" t="s">
         <v>46</v>
       </c>
@@ -9448,13 +9441,13 @@
         <v>52068.75</v>
       </c>
       <c r="G432" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H432" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="433" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="433" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C433" t="s">
         <v>69</v>
       </c>
@@ -9468,13 +9461,13 @@
         <v>48000</v>
       </c>
       <c r="G433" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H433" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="434" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="434" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C434" t="s">
         <v>7</v>
       </c>
@@ -9488,13 +9481,13 @@
         <v>18000</v>
       </c>
       <c r="G434" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H434" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="435" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="435" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C435" t="s">
         <v>7</v>
       </c>
@@ -9508,13 +9501,13 @@
         <v>14850</v>
       </c>
       <c r="G435" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="436" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="436" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C436" t="s">
         <v>85</v>
       </c>
@@ -9534,7 +9527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="437" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="437" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C437" t="s">
         <v>85</v>
       </c>
@@ -9554,7 +9547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="438" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="438" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C438" t="s">
         <v>69</v>
       </c>
@@ -9574,7 +9567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="439" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="439" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C439" t="s">
         <v>69</v>
       </c>
@@ -9594,7 +9587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="440" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="440" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C440" t="s">
         <v>46</v>
       </c>
@@ -9614,7 +9607,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="441" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="441" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C441" t="s">
         <v>104</v>
       </c>
@@ -9634,7 +9627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="442" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="442" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C442" t="s">
         <v>7</v>
       </c>
@@ -9654,7 +9647,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="443" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="443" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C443" t="s">
         <v>7</v>
       </c>
@@ -9674,7 +9667,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="444" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="444" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C444" t="s">
         <v>48</v>
       </c>
@@ -9694,7 +9687,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="445" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="445" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C445" t="s">
         <v>69</v>
       </c>
@@ -9714,7 +9707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="446" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="446" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C446" t="s">
         <v>48</v>
       </c>
@@ -9734,7 +9727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="447" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="447" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C447" t="s">
         <v>7</v>
       </c>
@@ -9754,7 +9747,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="448" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="448" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C448" t="s">
         <v>69</v>
       </c>
@@ -9768,13 +9761,13 @@
         <v>25016.25</v>
       </c>
       <c r="G448" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H448" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="449" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="449" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C449" t="s">
         <v>7</v>
       </c>
@@ -9788,13 +9781,13 @@
         <v>25016.25</v>
       </c>
       <c r="G449" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H449" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="450" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="450" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C450" t="s">
         <v>66</v>
       </c>
@@ -9808,13 +9801,13 @@
         <v>37800</v>
       </c>
       <c r="G450" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H450" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="451" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="451" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C451" t="s">
         <v>69</v>
       </c>
@@ -9828,13 +9821,13 @@
         <v>2750</v>
       </c>
       <c r="G451" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H451" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="452" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="452" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C452" t="s">
         <v>48</v>
       </c>
@@ -9848,13 +9841,13 @@
         <v>2750</v>
       </c>
       <c r="G452" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H452" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="453" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="453" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C453" t="s">
         <v>7</v>
       </c>
@@ -9868,13 +9861,13 @@
         <v>2750</v>
       </c>
       <c r="G453" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H453" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="454" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="454" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C454" t="s">
         <v>48</v>
       </c>
@@ -9888,13 +9881,13 @@
         <v>52815</v>
       </c>
       <c r="G454" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H454" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="455" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="455" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C455" t="s">
         <v>48</v>
       </c>
@@ -9908,13 +9901,13 @@
         <v>47250</v>
       </c>
       <c r="G455" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="456" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="456" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C456" t="s">
         <v>48</v>
       </c>
@@ -9928,13 +9921,13 @@
         <v>49717.5</v>
       </c>
       <c r="G456" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H456" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="457" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="457" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C457" t="s">
         <v>7</v>
       </c>
@@ -9948,13 +9941,13 @@
         <v>1800</v>
       </c>
       <c r="G457" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="458" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="458" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C458" t="s">
         <v>69</v>
       </c>
@@ -9968,13 +9961,13 @@
         <v>19635</v>
       </c>
       <c r="G458" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H458" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="459" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="459" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C459" t="s">
         <v>48</v>
       </c>
@@ -9988,13 +9981,13 @@
         <v>19635</v>
       </c>
       <c r="G459" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H459" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="460" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="460" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C460" t="s">
         <v>69</v>
       </c>
@@ -10008,13 +10001,13 @@
         <v>45450</v>
       </c>
       <c r="G460" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="461" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="461" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C461" t="s">
         <v>69</v>
       </c>
@@ -10028,13 +10021,13 @@
         <v>26550</v>
       </c>
       <c r="G461" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="462" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="462" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C462" t="s">
         <v>48</v>
       </c>
@@ -10048,13 +10041,13 @@
         <v>26550</v>
       </c>
       <c r="G462" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="463" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="463" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C463" t="s">
         <v>85</v>
       </c>
@@ -10068,13 +10061,13 @@
         <v>35437.5</v>
       </c>
       <c r="G463" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="464" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="464" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C464" t="s">
         <v>48</v>
       </c>
@@ -10088,13 +10081,13 @@
         <v>42750</v>
       </c>
       <c r="G464" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="465" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="465" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C465" t="s">
         <v>85</v>
       </c>
@@ -10108,13 +10101,13 @@
         <v>15412.5</v>
       </c>
       <c r="G465" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="466" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="466" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C466" t="s">
         <v>69</v>
       </c>
@@ -10128,13 +10121,13 @@
         <v>36787.5</v>
       </c>
       <c r="G466" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="467" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="467" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C467" t="s">
         <v>46</v>
       </c>
@@ -10148,13 +10141,13 @@
         <v>47280</v>
       </c>
       <c r="G467" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H467" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="468" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="468" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C468" t="s">
         <v>69</v>
       </c>
@@ -10168,13 +10161,13 @@
         <v>46316.25</v>
       </c>
       <c r="G468" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H468" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="469" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="469" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C469" t="s">
         <v>7</v>
       </c>
@@ -10188,13 +10181,13 @@
         <v>12125</v>
       </c>
       <c r="G469" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H469" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="470" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="470" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C470" t="s">
         <v>7</v>
       </c>
@@ -10208,13 +10201,13 @@
         <v>3600</v>
       </c>
       <c r="G470" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="471" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="471" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C471" t="s">
         <v>85</v>
       </c>
@@ -10234,7 +10227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="472" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="472" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C472" t="s">
         <v>69</v>
       </c>
@@ -10254,7 +10247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="473" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="473" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C473" t="s">
         <v>110</v>
       </c>
@@ -10274,7 +10267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="474" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="474" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C474" t="s">
         <v>104</v>
       </c>
@@ -10294,7 +10287,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="475" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="475" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C475" t="s">
         <v>69</v>
       </c>
@@ -10314,7 +10307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="476" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="476" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C476" t="s">
         <v>48</v>
       </c>
@@ -10334,7 +10327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="477" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="477" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C477" t="s">
         <v>7</v>
       </c>
@@ -10354,7 +10347,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="478" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="478" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C478" t="s">
         <v>69</v>
       </c>
@@ -10368,13 +10361,13 @@
         <v>18988.13</v>
       </c>
       <c r="G478" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H478" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="479" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="479" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C479" t="s">
         <v>7</v>
       </c>
@@ -10388,13 +10381,13 @@
         <v>18988.125</v>
       </c>
       <c r="G479" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H479" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="480" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="480" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C480" t="s">
         <v>66</v>
       </c>
@@ -10408,13 +10401,13 @@
         <v>39900</v>
       </c>
       <c r="G480" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H480" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="481" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="481" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C481" t="s">
         <v>69</v>
       </c>
@@ -10428,13 +10421,13 @@
         <v>2187.5</v>
       </c>
       <c r="G481" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H481" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="482" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="482" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C482" t="s">
         <v>48</v>
       </c>
@@ -10448,13 +10441,13 @@
         <v>2187.5</v>
       </c>
       <c r="G482" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H482" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="483" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="483" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C483" t="s">
         <v>7</v>
       </c>
@@ -10468,13 +10461,13 @@
         <v>2187.5</v>
       </c>
       <c r="G483" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H483" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="484" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="484" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C484" t="s">
         <v>48</v>
       </c>
@@ -10488,13 +10481,13 @@
         <v>40425</v>
       </c>
       <c r="G484" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H484" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="485" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="485" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C485" t="s">
         <v>48</v>
       </c>
@@ -10508,13 +10501,13 @@
         <v>32962.5</v>
       </c>
       <c r="G485" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="486" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="486" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C486" t="s">
         <v>48</v>
       </c>
@@ -10528,13 +10521,13 @@
         <v>38088.75</v>
       </c>
       <c r="G486" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H486" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="487" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="487" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C487" t="s">
         <v>69</v>
       </c>
@@ -10548,13 +10541,13 @@
         <v>23229.38</v>
       </c>
       <c r="G487" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H487" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="488" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="488" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C488" t="s">
         <v>48</v>
       </c>
@@ -10568,13 +10561,13 @@
         <v>23229.375</v>
       </c>
       <c r="G488" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H488" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="489" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="489" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C489" t="s">
         <v>69</v>
       </c>
@@ -10588,13 +10581,13 @@
         <v>28687.5</v>
       </c>
       <c r="G489" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="490" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="490" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C490" t="s">
         <v>69</v>
       </c>
@@ -10608,13 +10601,13 @@
         <v>18000</v>
       </c>
       <c r="G490" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="491" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="491" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C491" t="s">
         <v>48</v>
       </c>
@@ -10628,13 +10621,13 @@
         <v>18000</v>
       </c>
       <c r="G491" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="492" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="492" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C492" t="s">
         <v>85</v>
       </c>
@@ -10648,13 +10641,13 @@
         <v>55800</v>
       </c>
       <c r="G492" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="493" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="493" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C493" t="s">
         <v>48</v>
       </c>
@@ -10668,13 +10661,13 @@
         <v>23850</v>
       </c>
       <c r="G493" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="494" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="494" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C494" t="s">
         <v>85</v>
       </c>
@@ -10688,13 +10681,13 @@
         <v>1687.5</v>
       </c>
       <c r="G494" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="495" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="495" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C495" t="s">
         <v>69</v>
       </c>
@@ -10708,13 +10701,13 @@
         <v>39600</v>
       </c>
       <c r="G495" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="496" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="496" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C496" t="s">
         <v>46</v>
       </c>
@@ -10728,13 +10721,13 @@
         <v>19140</v>
       </c>
       <c r="G496" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H496" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="497" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="497" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C497" t="s">
         <v>69</v>
       </c>
@@ -10748,13 +10741,13 @@
         <v>14936.25</v>
       </c>
       <c r="G497" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H497" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="498" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="498" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C498" t="s">
         <v>7</v>
       </c>
@@ -10768,13 +10761,13 @@
         <v>2700</v>
       </c>
       <c r="G498" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="499" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="499" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C499" t="s">
         <v>46</v>
       </c>
@@ -10794,7 +10787,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="500" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="500" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C500" t="s">
         <v>69</v>
       </c>
@@ -10814,7 +10807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="501" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="501" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C501" t="s">
         <v>85</v>
       </c>
@@ -10834,7 +10827,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="502" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="502" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C502" t="s">
         <v>104</v>
       </c>
@@ -10854,7 +10847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="503" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="503" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C503" t="s">
         <v>48</v>
       </c>
@@ -10874,7 +10867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="504" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="504" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C504" t="s">
         <v>110</v>
       </c>
@@ -10894,7 +10887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="505" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="505" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C505" t="s">
         <v>115</v>
       </c>
@@ -10914,7 +10907,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="506" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="506" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C506" t="s">
         <v>69</v>
       </c>
@@ -10928,13 +10921,13 @@
         <v>14540.625</v>
       </c>
       <c r="G506" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H506" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="507" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="507" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C507" t="s">
         <v>7</v>
       </c>
@@ -10948,13 +10941,13 @@
         <v>14540.63</v>
       </c>
       <c r="G507" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H507" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="508" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="508" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C508" t="s">
         <v>66</v>
       </c>
@@ -10968,13 +10961,13 @@
         <v>31395</v>
       </c>
       <c r="G508" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H508" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="509" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="509" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C509" t="s">
         <v>48</v>
       </c>
@@ -10988,13 +10981,13 @@
         <v>22387.5</v>
       </c>
       <c r="G509" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="510" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="510" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C510" t="s">
         <v>48</v>
       </c>
@@ -11008,13 +11001,13 @@
         <v>35212.5</v>
       </c>
       <c r="G510" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H510" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="511" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="511" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C511" t="s">
         <v>69</v>
       </c>
@@ -11028,13 +11021,13 @@
         <v>18279.375</v>
       </c>
       <c r="G511" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H511" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="512" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="512" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C512" t="s">
         <v>48</v>
       </c>
@@ -11048,13 +11041,13 @@
         <v>18279.38</v>
       </c>
       <c r="G512" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H512" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="513" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="513" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C513" t="s">
         <v>69</v>
       </c>
@@ -11068,13 +11061,13 @@
         <v>14737.5</v>
       </c>
       <c r="G513" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="514" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="514" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C514" t="s">
         <v>48</v>
       </c>
@@ -11088,13 +11081,13 @@
         <v>14737.5</v>
       </c>
       <c r="G514" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="515" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="515" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C515" t="s">
         <v>85</v>
       </c>
@@ -11108,13 +11101,13 @@
         <v>44437.5</v>
       </c>
       <c r="G515" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="516" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="516" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C516" t="s">
         <v>48</v>
       </c>
@@ -11128,13 +11121,13 @@
         <v>32850</v>
       </c>
       <c r="G516" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="517" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="517" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C517" t="s">
         <v>85</v>
       </c>
@@ -11148,13 +11141,13 @@
         <v>0</v>
       </c>
       <c r="G517" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="518" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="518" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C518" t="s">
         <v>69</v>
       </c>
@@ -11168,13 +11161,13 @@
         <v>33975</v>
       </c>
       <c r="G518" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="519" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="519" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C519" t="s">
         <v>117</v>
       </c>
@@ -11188,13 +11181,13 @@
         <v>59535</v>
       </c>
       <c r="G519" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H519" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="520" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="520" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C520" t="s">
         <v>85</v>
       </c>
@@ -11214,7 +11207,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="521" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="521" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C521" t="s">
         <v>69</v>
       </c>
@@ -11234,7 +11227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="522" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="522" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C522" t="s">
         <v>85</v>
       </c>
@@ -11254,7 +11247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="523" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="523" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C523" t="s">
         <v>69</v>
       </c>
@@ -11274,7 +11267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="524" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="524" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C524" t="s">
         <v>104</v>
       </c>
@@ -11294,7 +11287,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="525" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="525" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C525" t="s">
         <v>48</v>
       </c>
@@ -11314,7 +11307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="526" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="526" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C526" t="s">
         <v>110</v>
       </c>
@@ -11334,7 +11327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="527" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="527" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C527" t="s">
         <v>7</v>
       </c>
@@ -11348,13 +11341,13 @@
         <v>18354.38</v>
       </c>
       <c r="G527" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H527" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="528" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="528" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C528" t="s">
         <v>7</v>
       </c>
@@ -11368,13 +11361,13 @@
         <v>18354.375</v>
       </c>
       <c r="G528" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H528" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="529" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="529" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C529" t="s">
         <v>66</v>
       </c>
@@ -11388,13 +11381,13 @@
         <v>35280</v>
       </c>
       <c r="G529" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H529" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="530" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="530" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C530" t="s">
         <v>48</v>
       </c>
@@ -11408,13 +11401,13 @@
         <v>38700</v>
       </c>
       <c r="G530" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H530" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="531" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="531" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C531" t="s">
         <v>69</v>
       </c>
@@ -11428,13 +11421,13 @@
         <v>14503.13</v>
       </c>
       <c r="G531" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H531" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="532" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="532" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C532" t="s">
         <v>48</v>
       </c>
@@ -11448,13 +11441,13 @@
         <v>14503.125</v>
       </c>
       <c r="G532" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H532" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="533" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="533" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C533" t="s">
         <v>69</v>
       </c>
@@ -11468,13 +11461,13 @@
         <v>8100</v>
       </c>
       <c r="G533" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="534" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="534" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C534" t="s">
         <v>48</v>
       </c>
@@ -11488,13 +11481,13 @@
         <v>8100</v>
       </c>
       <c r="G534" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="535" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="535" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C535" t="s">
         <v>85</v>
       </c>
@@ -11508,13 +11501,13 @@
         <v>61762.5</v>
       </c>
       <c r="G535" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="536" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="536" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C536" t="s">
         <v>48</v>
       </c>
@@ -11528,13 +11521,13 @@
         <v>30600</v>
       </c>
       <c r="G536" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="537" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="537" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C537" t="s">
         <v>85</v>
       </c>
@@ -11548,13 +11541,13 @@
         <v>21487.5</v>
       </c>
       <c r="G537" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="538" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="538" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C538" t="s">
         <v>69</v>
       </c>
@@ -11568,13 +11561,13 @@
         <v>37800</v>
       </c>
       <c r="G538" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="539" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="539" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C539" t="s">
         <v>48</v>
       </c>
@@ -11588,13 +11581,13 @@
         <v>3789.54</v>
       </c>
       <c r="G539" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H539" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="540" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="540" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C540" t="s">
         <v>85</v>
       </c>
@@ -11608,13 +11601,13 @@
         <v>40110</v>
       </c>
       <c r="G540" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H540" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="541" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="541" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C541" t="s">
         <v>120</v>
       </c>
@@ -11628,13 +11621,13 @@
         <v>9400</v>
       </c>
       <c r="G541" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H541" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="542" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="542" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C542" t="s">
         <v>120</v>
       </c>
@@ -11648,13 +11641,13 @@
         <v>240</v>
       </c>
       <c r="G542" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H542" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="543" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="543" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C543" t="s">
         <v>85</v>
       </c>
@@ -11674,7 +11667,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="544" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="544" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C544" t="s">
         <v>69</v>
       </c>
@@ -11694,7 +11687,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="545" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="545" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C545" t="s">
         <v>104</v>
       </c>
@@ -11714,7 +11707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="546" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="546" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C546" t="s">
         <v>69</v>
       </c>
@@ -11728,13 +11721,13 @@
         <v>2915.53</v>
       </c>
       <c r="G546" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H546" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="547" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="547" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C547" t="s">
         <v>7</v>
       </c>
@@ -11748,13 +11741,13 @@
         <v>2915.53</v>
       </c>
       <c r="G547" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H547" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="548" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="548" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C548" t="s">
         <v>66</v>
       </c>
@@ -11768,13 +11761,13 @@
         <v>41370</v>
       </c>
       <c r="G548" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H548" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="549" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="549" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C549" t="s">
         <v>48</v>
       </c>
@@ -11788,13 +11781,13 @@
         <v>38430</v>
       </c>
       <c r="G549" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H549" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="550" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="550" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C550" t="s">
         <v>69</v>
       </c>
@@ -11808,13 +11801,13 @@
         <v>26105.63</v>
       </c>
       <c r="G550" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H550" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="551" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="551" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C551" t="s">
         <v>48</v>
       </c>
@@ -11828,13 +11821,13 @@
         <v>26105.63</v>
       </c>
       <c r="G551" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H551" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="552" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="552" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C552" t="s">
         <v>69</v>
       </c>
@@ -11848,13 +11841,13 @@
         <v>4006.88</v>
       </c>
       <c r="G552" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H552" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="553" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="553" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C553" t="s">
         <v>48</v>
       </c>
@@ -11868,13 +11861,13 @@
         <v>4006.88</v>
       </c>
       <c r="G553" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H553" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="554" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="554" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C554" t="s">
         <v>85</v>
       </c>
@@ -11888,13 +11881,13 @@
         <v>59062</v>
       </c>
       <c r="G554" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="555" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="555" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C555" t="s">
         <v>85</v>
       </c>
@@ -11908,13 +11901,13 @@
         <v>42525</v>
       </c>
       <c r="G555" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="556" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="556" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C556" t="s">
         <v>69</v>
       </c>
@@ -11928,13 +11921,13 @@
         <v>7200</v>
       </c>
       <c r="G556" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="557" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="557" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C557" t="s">
         <v>117</v>
       </c>
@@ -11948,13 +11941,13 @@
         <v>36120</v>
       </c>
       <c r="G557" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H557" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="558" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="558" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C558" t="s">
         <v>48</v>
       </c>
@@ -11968,13 +11961,13 @@
         <v>14070</v>
       </c>
       <c r="G558" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H558" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="559" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="559" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C559" t="s">
         <v>7</v>
       </c>
@@ -11988,13 +11981,13 @@
         <v>35490</v>
       </c>
       <c r="G559" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H559" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="560" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="560" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C560" t="s">
         <v>110</v>
       </c>
@@ -12014,7 +12007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="561" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="561" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C561" t="s">
         <v>115</v>
       </c>
@@ -12034,7 +12027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="562" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="562" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C562" t="s">
         <v>85</v>
       </c>
@@ -12054,7 +12047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="563" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="563" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C563" t="s">
         <v>7</v>
       </c>
@@ -12068,13 +12061,13 @@
         <v>19950</v>
       </c>
       <c r="G563" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H563" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="564" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="564" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C564" t="s">
         <v>104</v>
       </c>
@@ -12094,7 +12087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="565" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="565" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C565" t="s">
         <v>69</v>
       </c>
@@ -12114,7 +12107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="566" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="566" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C566" t="s">
         <v>66</v>
       </c>
@@ -12128,13 +12121,13 @@
         <v>36120</v>
       </c>
       <c r="G566" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H566" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="567" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="567" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C567" t="s">
         <v>48</v>
       </c>
@@ -12148,13 +12141,13 @@
         <v>24150</v>
       </c>
       <c r="G567" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H567" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="568" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="568" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C568" t="s">
         <v>69</v>
       </c>
@@ -12168,13 +12161,13 @@
         <v>2786.25</v>
       </c>
       <c r="G568" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H568" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="569" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="569" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C569" t="s">
         <v>48</v>
       </c>
@@ -12188,13 +12181,13 @@
         <v>2786.25</v>
       </c>
       <c r="G569" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H569" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="570" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="570" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C570" t="s">
         <v>85</v>
       </c>
@@ -12208,13 +12201,13 @@
         <v>32625</v>
       </c>
       <c r="G570" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="571" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="571" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C571" t="s">
         <v>85</v>
       </c>
@@ -12228,13 +12221,13 @@
         <v>11587.5</v>
       </c>
       <c r="G571" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="572" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="572" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C572" t="s">
         <v>117</v>
       </c>
@@ -12248,13 +12241,13 @@
         <v>27930</v>
       </c>
       <c r="G572" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H572" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="573" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="573" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C573" t="s">
         <v>7</v>
       </c>
@@ -12268,13 +12261,13 @@
         <v>36330</v>
       </c>
       <c r="G573" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H573" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="574" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="574" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C574" t="s">
         <v>66</v>
       </c>
@@ -12288,13 +12281,13 @@
         <v>21210</v>
       </c>
       <c r="G574" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H574" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="575" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="575" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C575" t="s">
         <v>117</v>
       </c>
@@ -12308,13 +12301,13 @@
         <v>27930</v>
       </c>
       <c r="G575" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H575" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="576" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="576" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C576" t="s">
         <v>7</v>
       </c>
@@ -12328,13 +12321,13 @@
         <v>36330</v>
       </c>
       <c r="G576" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H576" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="577" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="577" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C577" t="s">
         <v>117</v>
       </c>
@@ -12354,7 +12347,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="578" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="578" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C578" t="s">
         <v>7</v>
       </c>
@@ -12374,7 +12367,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="579" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="579" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C579" t="s">
         <v>69</v>
       </c>
@@ -12388,13 +12381,13 @@
         <v>9348.75</v>
       </c>
       <c r="G579" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H579" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="580" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="580" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C580" t="s">
         <v>85</v>
       </c>
@@ -12408,13 +12401,13 @@
         <v>20137.5</v>
       </c>
       <c r="G580" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="581" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="581" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C581" t="s">
         <v>85</v>
       </c>
@@ -12428,13 +12421,13 @@
         <v>29925</v>
       </c>
       <c r="G581" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="582" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="582" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C582" t="s">
         <v>69</v>
       </c>
@@ -12454,7 +12447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="583" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="583" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C583" t="s">
         <v>110</v>
       </c>
@@ -12468,13 +12461,13 @@
         <v>2700</v>
       </c>
       <c r="G583" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="584" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="584" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C584" t="s">
         <v>136</v>
       </c>
@@ -12494,7 +12487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="585" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="585" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C585" t="s">
         <v>69</v>
       </c>
@@ -12508,13 +12501,13 @@
         <v>29580.75</v>
       </c>
       <c r="G585" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H585" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="586" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="586" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C586" t="s">
         <v>46</v>
       </c>
@@ -12528,13 +12521,13 @@
         <v>5364.72</v>
       </c>
       <c r="G586" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H586" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="587" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="587" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C587" t="s">
         <v>46</v>
       </c>
@@ -12554,7 +12547,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="588" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="588" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C588" t="s">
         <v>66</v>
       </c>
@@ -12568,13 +12561,13 @@
         <v>40740</v>
       </c>
       <c r="G588" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H588" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="589" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="589" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C589" t="s">
         <v>117</v>
       </c>
@@ -12588,13 +12581,13 @@
         <v>27930</v>
       </c>
       <c r="G589" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H589" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="590" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="590" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C590" t="s">
         <v>120</v>
       </c>
@@ -12608,13 +12601,13 @@
         <v>36330</v>
       </c>
       <c r="G590" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H590" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="591" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="591" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C591" t="s">
         <v>69</v>
       </c>
@@ -12628,13 +12621,13 @@
         <v>11655</v>
       </c>
       <c r="G591" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H591" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="592" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="592" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C592" t="s">
         <v>117</v>
       </c>
@@ -12654,7 +12647,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="593" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="593" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C593" t="s">
         <v>120</v>
       </c>
@@ -12674,7 +12667,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="594" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="594" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C594" t="s">
         <v>117</v>
       </c>
@@ -12688,13 +12681,13 @@
         <v>10080</v>
       </c>
       <c r="G594" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H594" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="595" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="595" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C595" t="s">
         <v>140</v>
       </c>
@@ -12708,13 +12701,13 @@
         <v>3360</v>
       </c>
       <c r="G595" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H595" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="596" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="596" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C596" t="s">
         <v>66</v>
       </c>
@@ -12728,13 +12721,13 @@
         <v>16170</v>
       </c>
       <c r="G596" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H596" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="597" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="597" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C597" t="s">
         <v>69</v>
       </c>
@@ -12748,13 +12741,13 @@
         <v>22644</v>
       </c>
       <c r="G597" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H597" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="598" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="598" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C598" t="s">
         <v>141</v>
       </c>
@@ -12774,7 +12767,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="599" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="599" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C599" t="s">
         <v>140</v>
       </c>
@@ -12788,13 +12781,13 @@
         <v>34335</v>
       </c>
       <c r="G599" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H599" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="600" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="600" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C600" t="s">
         <v>140</v>
       </c>
@@ -12814,7 +12807,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="601" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="601" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C601" t="s">
         <v>140</v>
       </c>
@@ -12828,13 +12821,13 @@
         <v>19800</v>
       </c>
       <c r="G601" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="602" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="602" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C602" t="s">
         <v>140</v>
       </c>
@@ -12854,7 +12847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="603" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="603" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C603" t="s">
         <v>140</v>
       </c>
@@ -12874,7 +12867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="604" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="604" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C604" t="s">
         <v>140</v>
       </c>
@@ -12894,7 +12887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="605" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="605" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C605" t="s">
         <v>115</v>
       </c>
@@ -12914,7 +12907,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="606" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="606" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C606" t="s">
         <v>141</v>
       </c>
@@ -12934,7 +12927,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="607" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="607" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C607" t="s">
         <v>140</v>
       </c>
@@ -12948,13 +12941,13 @@
         <v>34335</v>
       </c>
       <c r="G607" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H607" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="608" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="608" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C608" t="s">
         <v>140</v>
       </c>
@@ -12974,7 +12967,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="609" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="609" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C609" t="s">
         <v>140</v>
       </c>
@@ -12988,13 +12981,13 @@
         <v>38587.5</v>
       </c>
       <c r="G609" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="610" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="610" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C610" t="s">
         <v>140</v>
       </c>
@@ -13008,13 +13001,13 @@
         <v>6750</v>
       </c>
       <c r="G610" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="611" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="611" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C611" t="s">
         <v>140</v>
       </c>
@@ -13028,13 +13021,13 @@
         <v>12937.5</v>
       </c>
       <c r="G611" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="612" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="612" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C612" t="s">
         <v>140</v>
       </c>
@@ -13048,13 +13041,13 @@
         <v>1912.5</v>
       </c>
       <c r="G612" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="613" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="613" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C613" t="s">
         <v>140</v>
       </c>
@@ -13074,7 +13067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="614" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="614" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C614" t="s">
         <v>140</v>
       </c>
@@ -13094,7 +13087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="615" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="615" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C615" t="s">
         <v>141</v>
       </c>
@@ -13114,7 +13107,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="616" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="616" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C616" t="s">
         <v>140</v>
       </c>
@@ -13128,13 +13121,13 @@
         <v>42525</v>
       </c>
       <c r="G616" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="617" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="617" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C617" t="s">
         <v>140</v>
       </c>
@@ -13148,13 +13141,13 @@
         <v>13837</v>
       </c>
       <c r="G617" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="618" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="618" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C618" t="s">
         <v>140</v>
       </c>
@@ -13168,13 +13161,13 @@
         <v>14625</v>
       </c>
       <c r="G618" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="619" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="619" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C619" t="s">
         <v>152</v>
       </c>
@@ -13194,7 +13187,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="620" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="620" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C620" t="s">
         <v>141</v>
       </c>
@@ -13214,7 +13207,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="621" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="621" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C621" t="s">
         <v>140</v>
       </c>
@@ -13228,13 +13221,13 @@
         <v>42105</v>
       </c>
       <c r="G621" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H621" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="622" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="622" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C622" t="s">
         <v>140</v>
       </c>
@@ -13254,7 +13247,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="623" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="623" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C623" t="s">
         <v>140</v>
       </c>
@@ -13268,13 +13261,13 @@
         <v>47565</v>
       </c>
       <c r="G623" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H623" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="624" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="624" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C624" t="s">
         <v>140</v>
       </c>
@@ -13288,13 +13281,13 @@
         <v>9900</v>
       </c>
       <c r="G624" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="625" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="625" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C625" t="s">
         <v>140</v>
       </c>
@@ -13308,13 +13301,13 @@
         <v>4612.5</v>
       </c>
       <c r="G625" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="626" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="626" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C626" t="s">
         <v>140</v>
       </c>
@@ -13334,7 +13327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="627" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="627" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C627" t="s">
         <v>140</v>
       </c>
@@ -13348,13 +13341,13 @@
         <v>39585</v>
       </c>
       <c r="G627" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H627" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="628" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="628" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C628" t="s">
         <v>140</v>
       </c>
@@ -13368,13 +13361,13 @@
         <v>11925</v>
       </c>
       <c r="G628" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="629" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="629" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C629" t="s">
         <v>140</v>
       </c>
@@ -13388,13 +13381,13 @@
         <v>7200</v>
       </c>
       <c r="G629" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="630" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="630" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C630" t="s">
         <v>140</v>
       </c>
@@ -13411,7 +13404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="631" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="631" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C631" t="s">
         <v>140</v>
       </c>
@@ -13431,7 +13424,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="632" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="632" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C632" t="s">
         <v>140</v>
       </c>
@@ -13451,7 +13444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="633" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="633" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C633" t="s">
         <v>140</v>
       </c>
